--- a/input_data/admin_data/ECU/_clean/total-pos-ECU.xlsx
+++ b/input_data/admin_data/ECU/_clean/total-pos-ECU.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="1408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="1408">
   <si>
     <t>year</t>
   </si>
@@ -4290,22 +4290,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1320</v>
+        <v>1386</v>
       </c>
       <c r="B1" t="s">
-        <v>1321</v>
+        <v>1387</v>
       </c>
       <c r="C1" t="s">
-        <v>1330</v>
+        <v>1396</v>
       </c>
       <c r="D1" t="s">
-        <v>1331</v>
+        <v>1397</v>
       </c>
       <c r="E1" t="s">
-        <v>1332</v>
+        <v>1398</v>
       </c>
       <c r="F1" t="s">
-        <v>1341</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="2">
@@ -4313,16 +4313,16 @@
         <v>2008</v>
       </c>
       <c r="B2" t="s">
-        <v>1322</v>
+        <v>1388</v>
       </c>
       <c r="C2" s="1">
-        <v>2821.7672837582504</v>
+        <v>27.642103216567037</v>
       </c>
       <c r="D2" s="1">
-        <v>0.94089829921722412</v>
+        <v>0.99942106008529663</v>
       </c>
       <c r="E2" t="s">
-        <v>1333</v>
+        <v>1399</v>
       </c>
       <c r="F2" s="1">
         <v>6201.1068160713085</v>
@@ -4331,14 +4331,14 @@
     <row r="3">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>1323</v>
+        <v>1406</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
-        <v>0.97042548656463623</v>
+        <v>0.99971026182174683</v>
       </c>
       <c r="E3" t="s">
-        <v>1334</v>
+        <v>1406</v>
       </c>
       <c r="F3" s="1">
         <v>11701.011533552277</v>
@@ -4347,14 +4347,14 @@
     <row r="4">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>1324</v>
+        <v>1406</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
-        <v>0.99404728412628174</v>
+        <v>0.99994170665740967</v>
       </c>
       <c r="E4" t="s">
-        <v>1335</v>
+        <v>1406</v>
       </c>
       <c r="F4" s="1">
         <v>34409.242584</v>
@@ -4363,14 +4363,14 @@
     <row r="5">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>1325</v>
+        <v>1406</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
-        <v>0.99700003862380981</v>
+        <v>0.99997061491012573</v>
       </c>
       <c r="E5" t="s">
-        <v>1336</v>
+        <v>1406</v>
       </c>
       <c r="F5" s="1">
         <v>44915.427675000006</v>
@@ -4379,14 +4379,14 @@
     <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>1326</v>
+        <v>1406</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
-        <v>0.99936223030090332</v>
+        <v>0.99999374151229858</v>
       </c>
       <c r="E6" t="s">
-        <v>1337</v>
+        <v>1406</v>
       </c>
       <c r="F6" s="1">
         <v>102223.13359500001</v>
@@ -4395,14 +4395,14 @@
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>1327</v>
+        <v>1406</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
-        <v>0.99965751171112061</v>
+        <v>0.99999666213989258</v>
       </c>
       <c r="E7" t="s">
-        <v>1338</v>
+        <v>1406</v>
       </c>
       <c r="F7" s="1">
         <v>134221.16051399999</v>
@@ -4411,14 +4411,14 @@
     <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>1328</v>
+        <v>1406</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
-        <v>0.99989372491836548</v>
+        <v>0.99999898672103882</v>
       </c>
       <c r="E8" t="s">
-        <v>1339</v>
+        <v>1406</v>
       </c>
       <c r="F8" s="1">
         <v>393989.84531999996</v>
@@ -4427,14 +4427,14 @@
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>1329</v>
+        <v>1406</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
-        <v>0.99994683265686035</v>
+        <v>0.99999946355819702</v>
       </c>
       <c r="E9" t="s">
-        <v>1340</v>
+        <v>1406</v>
       </c>
       <c r="F9" s="1">
         <v>2327811.3491759994</v>
@@ -4451,22 +4451,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1342</v>
+        <v>1386</v>
       </c>
       <c r="B1" t="s">
-        <v>1343</v>
+        <v>1387</v>
       </c>
       <c r="C1" t="s">
-        <v>1352</v>
+        <v>1396</v>
       </c>
       <c r="D1" t="s">
-        <v>1353</v>
+        <v>1397</v>
       </c>
       <c r="E1" t="s">
-        <v>1354</v>
+        <v>1398</v>
       </c>
       <c r="F1" t="s">
-        <v>1363</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="2">
@@ -4474,16 +4474,16 @@
         <v>2009</v>
       </c>
       <c r="B2" t="s">
-        <v>1344</v>
+        <v>1388</v>
       </c>
       <c r="C2" s="1">
-        <v>2824.5789878231562</v>
+        <v>27.123078602786062</v>
       </c>
       <c r="D2" s="1">
-        <v>0.93922626972198486</v>
+        <v>0.99941641092300415</v>
       </c>
       <c r="E2" t="s">
-        <v>1355</v>
+        <v>1399</v>
       </c>
       <c r="F2" s="1">
         <v>7427.2634220259715</v>
@@ -4492,14 +4492,14 @@
     <row r="3">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>1345</v>
+        <v>1406</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
-        <v>0.96958887577056885</v>
+        <v>0.99970799684524536</v>
       </c>
       <c r="E3" t="s">
-        <v>1356</v>
+        <v>1406</v>
       </c>
       <c r="F3" s="1">
         <v>13488.39384913874</v>
@@ -4508,14 +4508,14 @@
     <row r="4">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>1346</v>
+        <v>1406</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
-        <v>0.99387890100479126</v>
+        <v>0.99994122982025146</v>
       </c>
       <c r="E4" t="s">
-        <v>1357</v>
+        <v>1406</v>
       </c>
       <c r="F4" s="1">
         <v>38196.156768000001</v>
@@ -4524,14 +4524,14 @@
     <row r="5">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>1347</v>
+        <v>1406</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
-        <v>0.99691516160964966</v>
+        <v>0.99997037649154663</v>
       </c>
       <c r="E5" t="s">
-        <v>1358</v>
+        <v>1406</v>
       </c>
       <c r="F5" s="1">
         <v>49205.200968000005</v>
@@ -4540,14 +4540,14 @@
     <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>1348</v>
+        <v>1406</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
-        <v>0.99934417009353638</v>
+        <v>0.99999368190765381</v>
       </c>
       <c r="E6" t="s">
-        <v>1359</v>
+        <v>1406</v>
       </c>
       <c r="F6" s="1">
         <v>118355.55177599999</v>
@@ -4556,14 +4556,14 @@
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>1349</v>
+        <v>1406</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
-        <v>0.99964779615402222</v>
+        <v>0.9999966025352478</v>
       </c>
       <c r="E7" t="s">
-        <v>1360</v>
+        <v>1406</v>
       </c>
       <c r="F7" s="1">
         <v>158940.49248000002</v>
@@ -4572,14 +4572,14 @@
     <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>1350</v>
+        <v>1406</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
-        <v>0.99989068508148193</v>
+        <v>0.99999892711639404</v>
       </c>
       <c r="E8" t="s">
-        <v>1361</v>
+        <v>1406</v>
       </c>
       <c r="F8" s="1">
         <v>479378.85349199997</v>
@@ -4588,14 +4588,14 @@
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>1351</v>
+        <v>1406</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
-        <v>0.99994534254074097</v>
+        <v>0.99999946355819702</v>
       </c>
       <c r="E9" t="s">
-        <v>1362</v>
+        <v>1406</v>
       </c>
       <c r="F9" s="1">
         <v>3192587.0213159998</v>
@@ -4612,22 +4612,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1364</v>
+        <v>1386</v>
       </c>
       <c r="B1" t="s">
-        <v>1365</v>
+        <v>1387</v>
       </c>
       <c r="C1" t="s">
-        <v>1374</v>
+        <v>1396</v>
       </c>
       <c r="D1" t="s">
-        <v>1375</v>
+        <v>1397</v>
       </c>
       <c r="E1" t="s">
-        <v>1376</v>
+        <v>1398</v>
       </c>
       <c r="F1" t="s">
-        <v>1385</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="2">
@@ -4635,16 +4635,16 @@
         <v>2010</v>
       </c>
       <c r="B2" t="s">
-        <v>1366</v>
+        <v>1388</v>
       </c>
       <c r="C2" s="1">
-        <v>3091.1425910001035</v>
+        <v>29.466916212687494</v>
       </c>
       <c r="D2" s="1">
-        <v>0.938285231590271</v>
+        <v>0.99941170215606689</v>
       </c>
       <c r="E2" t="s">
-        <v>1377</v>
+        <v>1399</v>
       </c>
       <c r="F2" s="1">
         <v>7514.7884521280221</v>
@@ -4653,14 +4653,14 @@
     <row r="3">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>1367</v>
+        <v>1406</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
-        <v>0.96911793947219849</v>
+        <v>0.99970561265945435</v>
       </c>
       <c r="E3" t="s">
-        <v>1378</v>
+        <v>1406</v>
       </c>
       <c r="F3" s="1">
         <v>13747.391606108247</v>
@@ -4669,14 +4669,14 @@
     <row r="4">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>1368</v>
+        <v>1406</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
-        <v>0.99378412961959839</v>
+        <v>0.99994075298309326</v>
       </c>
       <c r="E4" t="s">
-        <v>1379</v>
+        <v>1406</v>
       </c>
       <c r="F4" s="1">
         <v>38292.759681000003</v>
@@ -4685,14 +4685,14 @@
     <row r="5">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>1369</v>
+        <v>1406</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
-        <v>0.99686741828918457</v>
+        <v>0.99997013807296753</v>
       </c>
       <c r="E5" t="s">
-        <v>1380</v>
+        <v>1406</v>
       </c>
       <c r="F5" s="1">
         <v>49642.068630000016</v>
@@ -4701,14 +4701,14 @@
     <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>1370</v>
+        <v>1406</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
-        <v>0.99933403730392456</v>
+        <v>0.99999362230300903</v>
       </c>
       <c r="E6" t="s">
-        <v>1381</v>
+        <v>1406</v>
       </c>
       <c r="F6" s="1">
         <v>118746.68454000002</v>
@@ -4717,14 +4717,14 @@
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>1371</v>
+        <v>1406</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
-        <v>0.99964231252670288</v>
+        <v>0.9999966025352478</v>
       </c>
       <c r="E7" t="s">
-        <v>1382</v>
+        <v>1406</v>
       </c>
       <c r="F7" s="1">
         <v>148805.54350200001</v>
@@ -4733,14 +4733,14 @@
     <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>1372</v>
+        <v>1406</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
-        <v>0.99988901615142822</v>
+        <v>0.99999892711639404</v>
       </c>
       <c r="E8" t="s">
-        <v>1383</v>
+        <v>1406</v>
       </c>
       <c r="F8" s="1">
         <v>398746.96567200008</v>
@@ -4749,14 +4749,14 @@
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>1373</v>
+        <v>1406</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
-        <v>0.99994450807571411</v>
+        <v>0.99999946355819702</v>
       </c>
       <c r="E9" t="s">
-        <v>1384</v>
+        <v>1406</v>
       </c>
       <c r="F9" s="1">
         <v>1848757.1221680001</v>
@@ -4799,10 +4799,10 @@
         <v>1388</v>
       </c>
       <c r="C2" s="1">
-        <v>3542.84912109375</v>
+        <v>33.465564727783203</v>
       </c>
       <c r="D2" s="1">
-        <v>0.93721121549606323</v>
+        <v>0.99940687417984009</v>
       </c>
       <c r="E2" t="s">
         <v>1399</v>
@@ -4814,14 +4814,14 @@
     <row r="3">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>1389</v>
+        <v>1406</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
-        <v>0.96858048439025879</v>
+        <v>0.99970322847366333</v>
       </c>
       <c r="E3" t="s">
-        <v>1400</v>
+        <v>1406</v>
       </c>
       <c r="F3" s="1">
         <v>15366.538025025684</v>
@@ -4830,14 +4830,14 @@
     <row r="4">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>1390</v>
+        <v>1406</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
-        <v>0.99367594718933105</v>
+        <v>0.99994027614593506</v>
       </c>
       <c r="E4" t="s">
-        <v>1401</v>
+        <v>1406</v>
       </c>
       <c r="F4" s="1">
         <v>37523.415000000008</v>
@@ -4846,14 +4846,14 @@
     <row r="5">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>1391</v>
+        <v>1406</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
-        <v>0.99681288003921509</v>
+        <v>0.99996989965438843</v>
       </c>
       <c r="E5" t="s">
-        <v>1402</v>
+        <v>1406</v>
       </c>
       <c r="F5" s="1">
         <v>45908.899999999994</v>
@@ -4862,14 +4862,14 @@
     <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>1392</v>
+        <v>1406</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
-        <v>0.99932241439819336</v>
+        <v>0.99999362230300903</v>
       </c>
       <c r="E6" t="s">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="F6" s="1">
         <v>110935.78200000001</v>
@@ -4878,14 +4878,14 @@
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>1393</v>
+        <v>1406</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
-        <v>0.99963611364364624</v>
+        <v>0.99999654293060303</v>
       </c>
       <c r="E7" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="F7" s="1">
         <v>136489.69499999998</v>
@@ -4894,14 +4894,14 @@
     <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>1394</v>
+        <v>1406</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
-        <v>0.99988704919815063</v>
+        <v>0.99999892711639404</v>
       </c>
       <c r="E8" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="F8" s="1">
         <v>407213.54200000002</v>
@@ -4910,11 +4910,11 @@
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>1395</v>
+        <v>1406</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
-        <v>0.99994355440139771</v>
+        <v>0.99999946355819702</v>
       </c>
       <c r="E9" t="s">
         <v>1406</v>
